--- a/spreadsheet/macrofree/hci_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/hci_checklist.pt.xlsx
@@ -1975,17 +1975,17 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>Anfitrião</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Há pelo menos 5 VMs de controlador de rede implantadas</t>
+          <t>Se um VMSwitch for compartilhado para tráfego de Computação e Gerenciamento, exija que o tráfego de Gerenciamento seja marcado com uma ID de VLAN</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Isso garante que você tenha pelo menos 3 NCs ativas o tempo todo durante as atualizações de NC.</t>
+          <t>Isso garante que o tráfego de gerenciamento não seja exposto ao tráfego da VM</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -1999,12 +1999,12 @@
         </is>
       </c>
       <c r="G28" s="21" t="n"/>
-      <c r="H28" s="15" t="n"/>
+      <c r="H28" s="15" t="inlineStr"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>eb36f5f4-0fa7-4a2c-85f3-1b1c7c7817c0</t>
+          <t>abc85d0e-0ebd-4589-a777-0fa8ceb1d0f0</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2025,13 +2025,17 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Os backups da infraestrutura SDN são configurados e testados</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="n"/>
+          <t>Há pelo menos 5 VMs de controlador de rede implantadas</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="inlineStr">
+        <is>
+          <t>Isso garante que você tenha pelo menos 3 NCs ativas o tempo todo durante as atualizações de NC.</t>
+        </is>
+      </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2040,16 +2044,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/windows-server/networking/sdn/manage/update-backup-restore</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>8bc78c85-6028-4a43-af2d-082a0a344909</t>
+          <t>eb36f5f4-0fa7-4a2c-85f3-1b1c7c7817c0</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2060,23 +2060,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Cluster</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>A Instância Gerenciada SCOM foi considerada para cenários de monitoramento e alerta mais complexos</t>
+          <t>Os backups da infraestrutura SDN são configurados e testados</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2085,12 +2085,16 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/networking/sdn/manage/update-backup-restore</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>51eaa4b6-b9a7-43e1-a7dc-634d3107bc6d</t>
+          <t>8bc78c85-6028-4a43-af2d-082a0a344909</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2111,13 +2115,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Os alertas foram configurados para o cluster, usando o Azure Monitor, o SCOM ou uma solução de terceiros</t>
+          <t>A Instância Gerenciada SCOM foi considerada para cenários de monitoramento e alerta mais complexos</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2126,16 +2130,12 @@
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
-      <c r="H31" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/setup-hci-system-alerts</t>
-        </is>
-      </c>
+      <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>831f5aca-99ef-41e7-8263-9509f5093b43</t>
+          <t>51eaa4b6-b9a7-43e1-a7dc-634d3107bc6d</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2156,13 +2156,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>O Insights foi habilitado no nível do cluster e todos os nós estão relatando dados</t>
+          <t>Os alertas foram configurados para o cluster, usando o Azure Monitor, o SCOM ou uma solução de terceiros</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2173,7 +2173,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/monitor-hci-single?tabs=22h2-and-later</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/setup-hci-system-alerts</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f95d0e7e-9f61-476d-bf65-59f2454d1d39</t>
+          <t>831f5aca-99ef-41e7-8263-9509f5093b43</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>O Agente de Monitoramento do Azure foi implantado em hosts e uma Regra de Coleta de Dados apropriada foi configurada</t>
+          <t>O Insights foi habilitado no nível do cluster e todos os nós estão relatando dados</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2227,7 +2227,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>f4250fcb-ff53-40c9-b304-3560464fd90c</t>
+          <t>f95d0e7e-9f61-476d-bf65-59f2454d1d39</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Cluster</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>O monitoramento de hardware relevante foi configurado</t>
+          <t>O Agente de Monitoramento do Azure foi implantado em hosts e uma Regra de Coleta de Dados apropriada foi configurada</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2263,13 +2263,17 @@
         </is>
       </c>
       <c r="G34" s="21" t="n"/>
-      <c r="H34" s="15" t="n"/>
+      <c r="H34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/monitor-hci-single?tabs=22h2-and-later</t>
+        </is>
+      </c>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>6143af1d-0d1a-4163-b1c9-662f7459bb98</t>
+          <t>f4250fcb-ff53-40c9-b304-3560464fd90c</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2290,7 +2294,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>O alerta de hardware relevante foi configurado</t>
+          <t>O monitoramento de hardware relevante foi configurado</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2305,17 +2309,13 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/health-service-overview</t>
-        </is>
-      </c>
+      <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9cbdf225-549a-41cf-9c97-794766a6f2b0</t>
+          <t>6143af1d-0d1a-4163-b1c9-662f7459bb98</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2326,23 +2326,23 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de VM - Resource Bridge</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>A CLI do Azure foi instalada em cada nó para habilitar o gerenciamento de RB do WAC</t>
+          <t>O alerta de hardware relevante foi configurado</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2351,13 +2351,17 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/health-service-overview</t>
+        </is>
+      </c>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c0da5bbd-0f0d-4a26-98ec-38c9cc42b323</t>
+          <t>9cbdf225-549a-41cf-9c97-794766a6f2b0</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2368,7 +2372,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2378,7 +2382,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>O DHCP está disponível no cluster para dar suporte à Configuração de Convidado na implantação de VM do Azure</t>
+          <t>A CLI do Azure foi instalada em cada nó para habilitar o gerenciamento de RB do WAC</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2399,7 +2403,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a8ecf23c-c048-4fa9-b87b-51ebfb409863</t>
+          <t>c0da5bbd-0f0d-4a26-98ec-38c9cc42b323</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2410,23 +2414,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Backup e recuperação de desastres</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Gerenciamento de VM - Resource Bridge</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Os backups de VMs HCI foram configurados usando MABS ou uma solução de terceiros</t>
+          <t>O DHCP está disponível no cluster para dar suporte à Configuração de Convidado na implantação de VM do Azure</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2435,17 +2439,13 @@
         </is>
       </c>
       <c r="G38" s="21" t="n"/>
-      <c r="H38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/backup/back-up-azure-stack-hyperconverged-infrastructure-virtual-machines</t>
-        </is>
-      </c>
+      <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>074541e3-fe08-458a-8062-32d13dcc10c6</t>
+          <t>a8ecf23c-c048-4fa9-b87b-51ebfb409863</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2456,17 +2456,17 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Backup e recuperação de desastres</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Configuração do cluster</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>A configuração do cluster ou um script de configuração foi documentado e mantido</t>
+          <t>Os backups de VMs HCI foram configurados usando MABS ou uma solução de terceiros</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2481,13 +2481,17 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/backup/back-up-azure-stack-hyperconverged-infrastructure-virtual-machines</t>
+        </is>
+      </c>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>48f7ae57-1035-4101-8a38-fbe163d03e8a</t>
+          <t>074541e3-fe08-458a-8062-32d13dcc10c6</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2508,7 +2512,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Uma testemunha de cluster foi configurada</t>
+          <t>A configuração do cluster ou um script de configuração foi documentado e mantido</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2523,17 +2527,13 @@
         </is>
       </c>
       <c r="G40" s="21" t="n"/>
-      <c r="H40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/witness</t>
-        </is>
-      </c>
+      <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>f2a6a19a-ffe6-444d-badb-cb336c8e7b50</t>
+          <t>48f7ae57-1035-4101-8a38-fbe163d03e8a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2554,13 +2554,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>A Atualização com Suporte a Cluster foi configurada para atualizações do Windows e de hardware (se disponíveis)</t>
+          <t>Uma testemunha de cluster foi configurada para clusters com menos de 5 nós</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2571,7 +2571,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/update-cluster</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/witness</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>a47339fe-62c5-44a0-bb83-3d46ef16292f</t>
+          <t>f2a6a19a-ffe6-444d-badb-cb336c8e7b50</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2600,13 +2600,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>A validação de cluster foi executada no cluster configurado</t>
+          <t>A Atualização com Suporte a Cluster foi configurada para atualizações do Windows e de hardware (se disponíveis)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2617,7 +2617,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/deploy/validate</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/update-cluster</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2625,7 +2625,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7f1d6fe8-3079-44ea-8ea6-14494d1aa470</t>
+          <t>a47339fe-62c5-44a0-bb83-3d46ef16292f</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Os Benefícios do Azure foram habilitados nos níveis de cluster e VM</t>
+          <t>A validação de cluster foi executada no cluster configurado</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/deploy/validate</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2671,7 +2671,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>81693af0-5638-4aa2-a153-1d6189df30a7</t>
+          <t>7f1d6fe8-3079-44ea-8ea6-14494d1aa470</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>O módulo Verificador de Ambiente foi executado para validar o ambiente</t>
+          <t>Os Benefícios do Azure foram habilitados nos níveis de cluster e VM</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2709,7 +2709,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/use-environment-checker</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2717,7 +2717,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>8c967ee8-8170-4537-a28d-33431cd3632a</t>
+          <t>81693af0-5638-4aa2-a153-1d6189df30a7</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>A herança da Diretiva de Grupo no cluster HCI e na unidade organizacional do nó do Active Directory foi bloqueada ou as diretivas aplicadas foram avaliadas quanto a problemas de compatibilidade (geralmente a diretiva de execução do WinRM e do PowerShell)</t>
+          <t>O módulo Verificador de Ambiente foi executado para validar o ambiente</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2755,14 +2755,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/use-environment-checker</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>43ffbfab-766e-4950-a102-78b479136e4d</t>
+          <t>8c967ee8-8170-4537-a28d-33431cd3632a</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>O WAC está na versão mais recente e configurado para atualizar automaticamente as extensões</t>
+          <t>A herança da Diretiva de Grupo no cluster HCI e na unidade organizacional do nó do Active Directory foi bloqueada ou as diretivas aplicadas foram avaliadas quanto a problemas de compatibilidade (geralmente a diretiva de execução do WinRM e do PowerShell)</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2798,13 +2798,17 @@
         </is>
       </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="n"/>
+      <c r="H46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+        </is>
+      </c>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e6a3f3a7-4a7d-49e2-985a-6e39dd284027</t>
+          <t>43ffbfab-766e-4950-a102-78b479136e4d</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2815,17 +2819,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Clustering de alongamento</t>
+          <t>Configuração do cluster</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Há latência inferior a 5ms entre cada site se a replicação síncrona estiver sendo configurada no AAD</t>
+          <t>O WAC está na versão mais recente e configurado para atualizar automaticamente as extensões</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2846,7 +2850,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d1caa31f-cc26-42b2-b92f-2b667c0e6020</t>
+          <t>e6a3f3a7-4a7d-49e2-985a-6e39dd284027</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2857,7 +2861,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2867,13 +2871,13 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Há um plano detalhado para falha e recuperação do local</t>
+          <t>Há latência inferior a 5ms entre cada site se a replicação síncrona estiver sendo configurada no AAD</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2882,12 +2886,16 @@
         </is>
       </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>baed6066-8531-44ba-bd94-38cbabbf4099</t>
+          <t>d1caa31f-cc26-42b2-b92f-2b667c0e6020</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2908,13 +2916,13 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>VLANs e redes separadas são usadas para cada rede de replicação em ambos os locais</t>
+          <t>As redes de gerenciamento, replicação e armazenamento excluídas das configurações de VLANs estendidas são roteadas e em sub-redes diferentes</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2928,7 +2936,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b4</t>
+          <t>3277558e-3155-4088-b49a-78594cb4ce1a</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2939,23 +2947,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Backup e recuperação de desastres</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Clustering de alongamento</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>O Azure Site Recovery foi considerado para fins de DR</t>
+          <t>Há um plano detalhado para falha e recuperação do local</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2964,17 +2972,13 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-site-recovery</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>8ea49f70-1038-4283-b0c4-230165d3eabc</t>
+          <t>baed6066-8531-44ba-bd94-38cbabbf4099</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2983,147 +2987,404 @@
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>Rede</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>Clustering de alongamento</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>VLANs e redes separadas são usadas para cada rede de replicação em ambos os locais</t>
+        </is>
+      </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b4</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="n"/>
+      <c r="A52" s="21" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>Clustering de alongamento</t>
+        </is>
+      </c>
+      <c r="C52" s="21" t="inlineStr">
+        <is>
+          <t>Use uma testemunha de nuvem ou uma testemunha de compartilhamento de arquivos em um terceiro site para quorum de cluster para clusters com menos de 5 nós</t>
+        </is>
+      </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr#cost-optimization</t>
+        </is>
+      </c>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="n"/>
+      <c r="L52" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b5</t>
+        </is>
+      </c>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Clustering de alongamento</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Ao usar a eliminação de duplicação de dados, habilite-a somente nos volumes primários/de origem</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr#cost-optimization</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b6</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="n"/>
+      <c r="A54" s="21" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>Clustering de alongamento</t>
+        </is>
+      </c>
+      <c r="C54" s="21" t="inlineStr">
+        <is>
+          <t>Os volumes de log de backup de armazenamento devem ser mais rápidos (idealmente) ou, pelo menos, tão rápidos quanto o armazenamento de capacidade</t>
+        </is>
+      </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/storage/storage-replica/stretch-cluster-replication-using-shared-storage#provision-operating-system-features-roles-storage-and-network</t>
+        </is>
+      </c>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="n"/>
+      <c r="L54" s="25" t="inlineStr">
+        <is>
+          <t>ac527887-f6f4-40a3-b883-e04d704f013b</t>
+        </is>
+      </c>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="n"/>
+      <c r="A55" s="21" t="inlineStr">
+        <is>
+          <t>Backup e recuperação de desastres</t>
+        </is>
+      </c>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>Recuperação de desastres</t>
+        </is>
+      </c>
+      <c r="C55" s="21" t="inlineStr">
+        <is>
+          <t>O Azure Site Recovery foi considerado para fins de DR</t>
+        </is>
+      </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-site-recovery</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="n"/>
+      <c r="L55" s="25" t="inlineStr">
+        <is>
+          <t>8ea49f70-1038-4283-b0c4-230165d3eabc</t>
+        </is>
+      </c>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="n"/>
+      <c r="A56" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>Anfitrião</t>
+        </is>
+      </c>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>O BitLocker foi habilitado em CSVs para criptografia de volume, quando apropriado</t>
+        </is>
+      </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows/security/operating-system-security/data-protection/bitlocker/protecting-cluster-shared-volumes-and-storage-area-networks-with-bitlocker</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="n"/>
+      <c r="L56" s="25" t="inlineStr">
+        <is>
+          <t>03e65fdc-2628-4a1a-ba2e-a5174340ba52</t>
+        </is>
+      </c>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="n"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>Anfitrião</t>
+        </is>
+      </c>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>A criptografia SMB foi habilitada, quando apropriado</t>
+        </is>
+      </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="n"/>
+      <c r="H57" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/storage/file-server/smb-security</t>
+        </is>
+      </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="n"/>
+      <c r="L57" s="25" t="inlineStr">
+        <is>
+          <t>9645d2e6-ba28-453c-b6d5-d9ef29fc34be</t>
+        </is>
+      </c>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>Anfitrião</t>
+        </is>
+      </c>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>O Microsoft Defender Antivirus foi habilitado em todos os nós</t>
+        </is>
+      </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-antivirus-on-windows-server</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="n"/>
+      <c r="L58" s="25" t="inlineStr">
+        <is>
+          <t>8f03437a-5068-4486-9a78-0402ce771298</t>
+        </is>
+      </c>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="21" t="n"/>
-      <c r="C59" s="21" t="n"/>
+      <c r="A59" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>Anfitrião</t>
+        </is>
+      </c>
+      <c r="C59" s="21" t="inlineStr">
+        <is>
+          <t>O Credential Guard foi configurado, quando apropriado</t>
+        </is>
+      </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows/security/identity-protection/credential-guard/credential-guard-manage</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="n"/>
+      <c r="L59" s="25" t="inlineStr">
+        <is>
+          <t>dba6b211-fc02-43b3-b7c8-f163c188332e</t>
+        </is>
+      </c>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
@@ -7010,7 +7271,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F51" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/hci_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/hci_checklist.pt.xlsx
@@ -2025,7 +2025,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Há pelo menos 5 VMs de controlador de rede implantadas</t>
+          <t>Há pelo menos 3 VMs de controlador de rede implantadas</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
@@ -7286,7 +7286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7484,6 +7484,13 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
